--- a/data/trans_orig/Q20C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Clase-trans_orig.xlsx
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 17,73</t>
+          <t>5,13; 17,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 17,15</t>
+          <t>1,72; 17,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,23</t>
+          <t>2,16; 4,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,41</t>
+          <t>3,59; 10,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 15,07</t>
+          <t>3,33; 15,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +759,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,15</t>
+          <t>0,88; 8,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,59</t>
+          <t>3,86; 13,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,64</t>
+          <t>3,96; 13,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,3</t>
+          <t>2,8; 5,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,99</t>
+          <t>3,35; 9,19</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,6</t>
+          <t>1,77; 5,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,43</t>
+          <t>1,48; 3,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,69</t>
+          <t>2,45; 7,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,01</t>
+          <t>1,2; 5,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,51</t>
+          <t>1,5; 3,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,13</t>
+          <t>3,2; 7,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,8</t>
+          <t>3,79; 12,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,88</t>
+          <t>2,05; 4,91</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 15,56</t>
+          <t>2,72; 17,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,66</t>
+          <t>3,64; 10,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 18,5</t>
+          <t>4,9; 20,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 17,56</t>
+          <t>3,71; 18,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,09</t>
+          <t>1,58; 8,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,29</t>
+          <t>1,03; 9,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 22,6</t>
+          <t>3,71; 20,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 13,19</t>
+          <t>3,07; 12,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,87</t>
+          <t>3,66; 8,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,78</t>
+          <t>4,36; 14,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 17,01</t>
+          <t>5,69; 17,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,06</t>
+          <t>2,18; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,81</t>
+          <t>2,73; 9,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 25,73</t>
+          <t>4,69; 24,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,96</t>
+          <t>2,31; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 11,23</t>
+          <t>3,76; 12,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,14</t>
+          <t>3,15; 10,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 14,54</t>
+          <t>5,17; 14,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 24,23</t>
+          <t>3,84; 22,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,79</t>
+          <t>3,3; 7,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,92</t>
+          <t>3,33; 7,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 20,43</t>
+          <t>6,2; 18,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,95</t>
+          <t>3,55; 13,31</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1289,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,6</t>
+          <t>3,07; 12,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,99</t>
+          <t>2,15; 4,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 22,58</t>
+          <t>5,22; 19,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,37</t>
+          <t>1,95; 5,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,46</t>
+          <t>3,45; 6,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,36</t>
+          <t>4,85; 11,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,84</t>
+          <t>3,39; 7,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 20,11</t>
+          <t>3,79; 22,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,18</t>
+          <t>3,92; 7,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,78</t>
+          <t>4,43; 9,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,9</t>
+          <t>4,91; 12,29</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1444,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,08</t>
+          <t>3,05; 6,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,51</t>
+          <t>3,15; 8,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,97</t>
+          <t>2,75; 9,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,95</t>
+          <t>3,81; 9,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,8</t>
+          <t>3,0; 6,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,28</t>
+          <t>3,31; 8,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,87</t>
+          <t>3,17; 9,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,4</t>
+          <t>4,51; 14,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,32</t>
+          <t>4,95; 12,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,87</t>
+          <t>4,03; 7,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,17</t>
+          <t>5,69; 14,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,04</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,13</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,92</t>
+          <t>4,44; 6,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,08</t>
+          <t>4,93; 8,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,66</t>
+          <t>4,4; 9,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,7</t>
+          <t>4,4; 7,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,61</t>
+          <t>4,6; 6,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,92</t>
+          <t>5,71; 9,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,63</t>
+          <t>5,29; 8,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q20C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
